--- a/biology/Médecine/Isidor_Rosenthal/Isidor_Rosenthal.xlsx
+++ b/biology/Médecine/Isidor_Rosenthal/Isidor_Rosenthal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Isidor Rosenthal (16 juillet 1836 - 2 janvier 1915) est un physiologiste prussien originaire de Labischin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1859, il obtient son doctorat à l'Université de Berlin, où il est l'élève d'Emil du Bois-Reymond (1818-1896). Ensuite, il reste à Berlin en tant qu'assistant à l'institut de physiologie, où en 1867 il devient professeur assistant. En 1872, il est nommé professeur de physiologie à l'Université d'Erlangen.
 Rosenthal contribue à la recherche physiologique sur la respiration et aux recherches sur la régulation de la chaleur chez les animaux à sang chaud.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Athembewegungen und Ihre Beziehungen zum Nervus Vagus, (Mouvements respiratoires et leur relation avec le nerf vague ); Berlin, 1862
 Zur Kenntniss der Wärmeregulirung bei den Warmblütigen Thieren, (Concernant la régulation de la chaleur chez les animaux à sang chaud) Erlangen, 1872
